--- a/G2A101秋山燎/設計書/G2A101 テーブル定義書.xlsx
+++ b/G2A101秋山燎/設計書/G2A101 テーブル定義書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20207041\Desktop\G2A101秋山燎\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20207041\Documents\HCSForm\G2A101秋山燎\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB2EA1-4AC0-4A43-B8BE-73FC4E0B8701}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C52C25-5115-42D8-94B6-EDF476A4FF03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>説明／備考</t>
   </si>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>m_customer</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>テーブルID</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -235,34 +231,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>作成日時</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>更新日時</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>updata_time</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>会員ID</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -270,10 +238,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>menber_id</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>会員登録管理</t>
     <rPh sb="0" eb="4">
       <t>カイイントウロク</t>
@@ -312,72 +276,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>telephone_number</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>すでに登録された会員IDが入力された場合、会員情報を更新する。</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>会員IDをもとに、氏名を割り当てる。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>会員IDをもとに、住所を割り当てる。</t>
-    <rPh sb="9" eb="11">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>会員IDをもとに、電話番号を割り当てる。</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>会員登録した日に会員IDを作成。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Null</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -403,15 +301,66 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>一意な会員のIDコードからランダムに割り当てる。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>member_name</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>member_address</t>
+    <t>一意な会員IDコードからランダムに割り当てる。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MenberId</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MenberName</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MenberAddress</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MenberNumber</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>名前を割り当てると、会員IDとともに更新する。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>住所を割り当てると、会員IDとともに更新する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電話番号を割り当てると、会員IDとともに更新する。</t>
+    <rPh sb="0" eb="4">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>HCSForm</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -422,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -511,6 +460,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -878,7 +834,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1064,6 +1020,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1578,40 +1543,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="75"/>
+      <c r="J1" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
       <c r="I2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="76">
+      <c r="J2" s="79">
         <v>44847</v>
       </c>
-      <c r="K2" s="77"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -1639,27 +1604,27 @@
         <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="65" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="66"/>
+      <c r="K4" s="69"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1676,29 +1641,29 @@
         <v>43881</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="54"/>
       <c r="C6" s="53"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
@@ -1770,7 +1735,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="L8" sqref="L8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -1793,59 +1758,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="83" t="s">
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="82"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="84">
+      <c r="O1" s="87">
         <v>44873</v>
       </c>
-      <c r="P1" s="85"/>
+      <c r="P1" s="88"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="87"/>
+        <v>36</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="49">
         <v>44856</v>
@@ -1853,50 +1818,50 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="89">
+      <c r="O2" s="92">
         <v>44873</v>
       </c>
-      <c r="P2" s="87"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="98"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -1919,11 +1884,11 @@
         <v>22</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>5</v>
@@ -1937,10 +1902,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="106"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -1955,14 +1920,14 @@
       <c r="A7" s="33">
         <v>1</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>40</v>
+      <c r="B7" s="65" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E7" s="63">
         <v>8</v>
@@ -1981,12 +1946,12 @@
       </c>
       <c r="J7" s="60"/>
       <c r="K7" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="91"/>
+        <v>41</v>
+      </c>
+      <c r="L7" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -1995,14 +1960,14 @@
       <c r="A8" s="42">
         <v>2</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>56</v>
       </c>
       <c r="E8" s="37">
         <v>20</v>
@@ -2017,12 +1982,12 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="105"/>
+        <v>41</v>
+      </c>
+      <c r="L8" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="108"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2031,14 +1996,14 @@
       <c r="A9" s="43">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>45</v>
+      <c r="B9" s="67" t="s">
+        <v>39</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E9" s="37">
         <v>30</v>
@@ -2053,12 +2018,12 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="105"/>
+        <v>41</v>
+      </c>
+      <c r="L9" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="108"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2067,14 +2032,14 @@
       <c r="A10" s="43">
         <v>4</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>46</v>
+      <c r="B10" s="67" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E10" s="37">
         <v>12</v>
@@ -2089,12 +2054,12 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="105"/>
+        <v>41</v>
+      </c>
+      <c r="L10" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="108"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2103,34 +2068,18 @@
       <c r="A11" s="43">
         <v>5</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="37">
-        <v>10</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>23</v>
-      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="107"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="110"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2139,34 +2088,18 @@
       <c r="A12" s="43">
         <v>6</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="37">
-        <v>10</v>
-      </c>
-      <c r="F12" s="38">
-        <v>0</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>23</v>
-      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="109"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="112"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2185,8 +2118,8 @@
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="111"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="114"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2205,8 +2138,8 @@
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="111"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="114"/>
       <c r="N14" s="45"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2225,8 +2158,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2245,8 +2178,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="91"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="94"/>
       <c r="N16" s="45"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2265,8 +2198,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="91"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="94"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2285,8 +2218,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="91"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="94"/>
       <c r="N18" s="45"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2305,8 +2238,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="91"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="94"/>
       <c r="N19" s="45"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2325,8 +2258,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="91"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="94"/>
       <c r="N20" s="45"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2345,8 +2278,8 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="91"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="94"/>
       <c r="N21" s="45"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
